--- a/datagen_new.xlsx
+++ b/datagen_new.xlsx
@@ -6086,7 +6086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6127,17 +6127,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
         <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6146,17 +6146,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6165,17 +6165,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -6184,36 +6184,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6222,17 +6222,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -6241,17 +6241,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="n">
         <v>8</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -6260,17 +6260,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -6279,36 +6279,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -6317,17 +6317,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -6336,17 +6336,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -6355,17 +6355,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -6374,36 +6374,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Transportation</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Food</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -6412,17 +6412,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Rent</t>
+          <t>Food</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -6431,17 +6431,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Others</t>
+          <t>Rent</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="D18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -6450,17 +6450,55 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transportation</t>
+          <t>Others</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Transportation</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>300</v>
+      </c>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E20" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Utilities</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12635,7 +12673,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12735,16 +12773,6 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Meow</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
